--- a/Data Files/ChangeProfile.xlsx
+++ b/Data Files/ChangeProfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dokci\git\finalprojectteam2\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC55C5A-DCE6-409D-9B79-0D89A4BB2635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CAAEF8-A07B-49EC-96F5-5E7D0D3B4B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <t>Data Files\Peace.png</t>
   </si>
   <si>
-    <t>photo</t>
+    <t>Link</t>
   </si>
 </sst>
 </file>
